--- a/PG Txn Api.xlsx
+++ b/PG Txn Api.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratikb\APITest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratikb\APITest-pratikb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="435">
   <si>
     <t>Test Case</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>TC04</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>TC01</t>
@@ -181,11 +178,3967 @@
 }</t>
   </si>
   <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>TC34</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>TC40</t>
+  </si>
+  <si>
+    <t>TC41</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>TC43</t>
+  </si>
+  <si>
+    <t>TC44</t>
+  </si>
+  <si>
+    <t>TC45</t>
+  </si>
+  <si>
+    <t>TC46</t>
+  </si>
+  <si>
+    <t>TC47</t>
+  </si>
+  <si>
+    <t>TC48</t>
+  </si>
+  <si>
+    <t>TC49</t>
+  </si>
+  <si>
+    <t>TC50</t>
+  </si>
+  <si>
+    <t>TC51</t>
+  </si>
+  <si>
+    <t>TC52</t>
+  </si>
+  <si>
+    <t>TC53</t>
+  </si>
+  <si>
+    <t>TC54</t>
+  </si>
+  <si>
+    <t>TC55</t>
+  </si>
+  <si>
+    <t>TC56</t>
+  </si>
+  <si>
+    <t>TC57</t>
+  </si>
+  <si>
+    <t>TC58</t>
+  </si>
+  <si>
+    <t>TC59</t>
+  </si>
+  <si>
+    <t>TC60</t>
+  </si>
+  <si>
+    <t>TC61</t>
+  </si>
+  <si>
+    <t>TC62</t>
+  </si>
+  <si>
+    <t>TC63</t>
+  </si>
+  <si>
+    <t>TC64</t>
+  </si>
+  <si>
+    <t>TC65</t>
+  </si>
+  <si>
+    <t>TC66</t>
+  </si>
+  <si>
+    <t>TC67</t>
+  </si>
+  <si>
+    <t>TC68</t>
+  </si>
+  <si>
+    <t>TC69</t>
+  </si>
+  <si>
+    <t>TC70</t>
+  </si>
+  <si>
+    <t>TC71</t>
+  </si>
+  <si>
+    <t>TC72</t>
+  </si>
+  <si>
+    <t>TC73</t>
+  </si>
+  <si>
+    <t>TC74</t>
+  </si>
+  <si>
+    <t>TC75</t>
+  </si>
+  <si>
+    <t>TC76</t>
+  </si>
+  <si>
+    <t>TC77</t>
+  </si>
+  <si>
+    <t>TC78</t>
+  </si>
+  <si>
+    <t>TC79</t>
+  </si>
+  <si>
+    <t>TC80</t>
+  </si>
+  <si>
+    <t>TC81</t>
+  </si>
+  <si>
+    <t>TC82</t>
+  </si>
+  <si>
+    <t>TC83</t>
+  </si>
+  <si>
+    <t>TC84</t>
+  </si>
+  <si>
+    <t>TC85</t>
+  </si>
+  <si>
+    <t>TC86</t>
+  </si>
+  <si>
+    <t>TC87</t>
+  </si>
+  <si>
+    <t>TC88</t>
+  </si>
+  <si>
+    <t>TC89</t>
+  </si>
+  <si>
+    <t>TC90</t>
+  </si>
+  <si>
+    <t>TC91</t>
+  </si>
+  <si>
+    <t>TC92</t>
+  </si>
+  <si>
+    <t>TC93</t>
+  </si>
+  <si>
+    <t>TC94</t>
+  </si>
+  <si>
+    <t>TC95</t>
+  </si>
+  <si>
+    <t>TC96</t>
+  </si>
+  <si>
+    <t>TC97</t>
+  </si>
+  <si>
+    <t>TC98</t>
+  </si>
+  <si>
+    <t>TC99</t>
+  </si>
+  <si>
+    <t>TC100</t>
+  </si>
+  <si>
+    <t>TC101</t>
+  </si>
+  <si>
+    <t>TC102</t>
+  </si>
+  <si>
+    <t>TC103</t>
+  </si>
+  <si>
+    <t>TC104</t>
+  </si>
+  <si>
+    <t>TC105</t>
+  </si>
+  <si>
+    <t>TC106</t>
+  </si>
+  <si>
+    <t>TC107</t>
+  </si>
+  <si>
+    <t>TC108</t>
+  </si>
+  <si>
+    <t>TC109</t>
+  </si>
+  <si>
+    <t>TC110</t>
+  </si>
+  <si>
+    <t>TC111</t>
+  </si>
+  <si>
+    <t>TC112</t>
+  </si>
+  <si>
+    <t>TC113</t>
+  </si>
+  <si>
+    <t>TC114</t>
+  </si>
+  <si>
+    <t>TC115</t>
+  </si>
+  <si>
+    <t>TC116</t>
+  </si>
+  <si>
+    <t>TC117</t>
+  </si>
+  <si>
+    <t>TC118</t>
+  </si>
+  <si>
+    <t>TC119</t>
+  </si>
+  <si>
+    <t>TC120</t>
+  </si>
+  <si>
+    <t>TC121</t>
+  </si>
+  <si>
+    <t>TC122</t>
+  </si>
+  <si>
+    <t>TC123</t>
+  </si>
+  <si>
+    <t>TC124</t>
+  </si>
+  <si>
+    <t>TC125</t>
+  </si>
+  <si>
+    <t>TC126</t>
+  </si>
+  <si>
+    <t>TC127</t>
+  </si>
+  <si>
+    <t>TC128</t>
+  </si>
+  <si>
+    <t>TC129</t>
+  </si>
+  <si>
+    <t>TC130</t>
+  </si>
+  <si>
+    <t>TC131</t>
+  </si>
+  <si>
+    <t>TC132</t>
+  </si>
+  <si>
+    <t>TC133</t>
+  </si>
+  <si>
+    <t>TC134</t>
+  </si>
+  <si>
+    <t>TC135</t>
+  </si>
+  <si>
+    <t>TC136</t>
+  </si>
+  <si>
+    <t>TC137</t>
+  </si>
+  <si>
+    <t>TC138</t>
+  </si>
+  <si>
+    <t>TC139</t>
+  </si>
+  <si>
+    <t>TC140</t>
+  </si>
+  <si>
+    <t>TC141</t>
+  </si>
+  <si>
+    <t>TC142</t>
+  </si>
+  <si>
+    <t>TC143</t>
+  </si>
+  <si>
+    <t>TC144</t>
+  </si>
+  <si>
+    <t>TC145</t>
+  </si>
+  <si>
+    <t>TC146</t>
+  </si>
+  <si>
+    <t>TC147</t>
+  </si>
+  <si>
+    <t>TC148</t>
+  </si>
+  <si>
+    <t>TC149</t>
+  </si>
+  <si>
+    <t>TC150</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Email Invalid</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "abc@abc",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>Email Length Exceeded</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "abc@abcabc@abcabc@abcabc@abcabc@abcabc@abcabc@abcabc@abc",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>Email given more than once</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+   "email" : "nitish.bangera@transerv.co.in",  "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>mobile number missing</t>
+  </si>
+  <si>
+    <t>mobile number blank</t>
+  </si>
+  <si>
+    <t>mobile number invalid</t>
+  </si>
+  <si>
+    <t>mobile number length exceeded</t>
+  </si>
+  <si>
+    <t>mobile number given more than once</t>
+  </si>
+  <si>
+    <t>mobile number less than minimum length</t>
+  </si>
+  <si>
+    <t>mobile number with all zero</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "99$#@abcd1",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "99999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "mobileNumber" : "9999999999",    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "0000000000",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter email is invalid",
+  "errorCode": "103",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter email length exceeded",
+  "errorCode": "104",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter email given more than once",
+  "errorCode": "105",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter mobileNumber is missing",
+  "errorCode": "201",
+  "merchantTxnRef": "ABC-111",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter mobileNumber is blank",
+  "errorCode": "202",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter mobileNumber is invalid",
+  "errorCode": "203",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter mobileNumber length exceeded",
+  "errorCode": "204",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter mobileNumber given more than once",
+  "errorCode": "205",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter mobileNumber less than minimum length",
+  "errorCode": "209",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
     <t>{
   "statusMsg": "Parameter email is missing",
   "errorCode": "101",
   "merchantTxnRef": "ABC-111",
   "status": 1
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount missing </t>
+  </si>
+  <si>
+    <t>amount blank</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter amount is missing",
+  "errorCode": "301",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter amount is blank",
+  "errorCode": "302",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "1a$.##",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Amount should be in correct format",
+  "errorCode": "303",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>amount invalid - special characters</t>
+  </si>
+  <si>
+    <t>amount invalid - more than 2 decimals</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.000",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "amount" : "101.00",    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>amount given more than once</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter email is blank",
+  "errorCode": "305",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>amount less than minimum value</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "09.99",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter email is blank",
+  "errorCode": "306",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>amount per transaction limit breach</t>
+  </si>
+  <si>
+    <t>amount daily transaction limit breach</t>
+  </si>
+  <si>
+    <t>amount monthly transaction limit breach</t>
+  </si>
+  <si>
+    <t>amount yearly transaction limit breach</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Your per transaction limit amount of &lt;PG per transaction limit amount&gt; has reached",
+  "errorCode": "307",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Your daily transaction limit amount of &lt;daily transaction limit amount&gt; has reached",
+  "errorCode": "310",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Your monthly transaction limit amount of &lt;monthly transaction limit amount&gt; has reached",
+  "errorCode": "311",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Your yearly transaction limit amount of &lt;yearly transaction limit amount&gt; has reached",
+  "errorCode": "312",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>merchantTxnRef missing</t>
+  </si>
+  <si>
+    <t>merchantTxnRef blank</t>
+  </si>
+  <si>
+    <t>merchantTxnRef invalid</t>
+  </si>
+  <si>
+    <t>merchantTxnRef length exceeded</t>
+  </si>
+  <si>
+    <t>merchantTxnRef given  ore than</t>
+  </si>
+  <si>
+    <t>merchantTxnRef already used</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter merchantTxnRef is missing",
+  "errorCode": "401",
+  "merchantTxnRef": "ABC-111",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter merchantTxnRef is blank",
+  "errorCode": "402",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter merchantTxnRef is invalid",
+  "errorCode": "403",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter merchantTxnRef length exceeded",
+  "errorCode": "404",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter merchantTxnRef given more than once",
+  "errorCode": "405",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter merchantTxnRef already used",
+  "errorCode": "408",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>checksum method missing</t>
+  </si>
+  <si>
+    <t>checksum method blank</t>
+  </si>
+  <si>
+    <t>checksum method length exceed</t>
+  </si>
+  <si>
+    <t>checksum method invalid</t>
+  </si>
+  <si>
+    <t>checksum method given more than once</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter checksumMethod is missing",
+  "errorCode": "601",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter checksumMethod is blank",
+  "errorCode": "602",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter checksumMethod is invalid",
+  "errorCode": "603",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter checksumMethod length exceeded",
+  "errorCode": "604",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter checksumMethod given more than once",
+  "errorCode": "605",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>appUsed missing</t>
+  </si>
+  <si>
+    <t>appUsed blank</t>
+  </si>
+  <si>
+    <t>appUsed invalid</t>
+  </si>
+  <si>
+    <t>appUsed length exceeded</t>
+  </si>
+  <si>
+    <t>appUsed given more than once</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter appUsed is missing",
+  "errorCode": "701",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter appUsed is blank",
+  "errorCode": "702",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter appUsed is invalid",
+  "errorCode": "703",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter appUsed length exceeded",
+  "errorCode": "704",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter appUsed given more than once",
+  "errorCode": "705",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>apikey missing</t>
+  </si>
+  <si>
+    <t>apikey invalid</t>
+  </si>
+  <si>
+    <t>apikey blank</t>
+  </si>
+  <si>
+    <t>apikey length exceeded</t>
+  </si>
+  <si>
+    <t>apikey given more than once</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter apikey is missing",
+  "errorCode": "901",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter apikey is blank",
+  "errorCode": "902",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter apikey is invalid",
+  "errorCode": "903",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter apikey length exceeded",
+  "errorCode": "904",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter apikey given more than once",
+  "errorCode": "905",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>currency_code missing</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC$11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-111ABC-111ABC-111ABC-111ABC-1111",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "merchantTxnRef" : "ABC-11",    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-111",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD51234",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5SHA256MD5SHA256MD5SHA256MD5SHA256MD5SHA256</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksumMethod" : "MD5",    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUTIFRAME1",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "appUsed" : "IFRAME_CHECKOUT",    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|abcdefghij|123456789|!@#$%^&amp;*()|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "apiKey" : "123456789|123456789|123456789|123456789|",    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>currency_code blank</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter currency_code is missing",
+  "errorCode": "1002",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter currency_code is blank",
+  "errorCode": "1002",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>currency_code invalid</t>
+  </si>
+  <si>
+    <t>currency_code length exceeded</t>
+  </si>
+  <si>
+    <t>currency_code given more than once</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter currency_code given more than once",
+  "errorCode": "1005",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter currency_code is invalid",
+  "errorCode": "1003",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter currency_code length exceeded",
+  "errorCode": "1004",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>merchantID is missing</t>
+  </si>
+  <si>
+    <t>merchantID is blank</t>
+  </si>
+  <si>
+    <t>merchantID is invalid</t>
+  </si>
+  <si>
+    <t>merchantID length exceeded</t>
+  </si>
+  <si>
+    <t>merchantID given more than once</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "RSA",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR1",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "currencyCode" : "INR",    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "XYZ@!#123",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "UDO-123UDO-123UDO-123UDO-123UDO-1231",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "b2bUserId" : "1",    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter merchantID given more than once",
+  "errorCode": "1105",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter merchantID is missing",
+  "errorCode": "1102",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter merchantID is blank",
+  "errorCode": "1102",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter merchantID is invalid",
+  "errorCode": "1103",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter merchantID length exceeded",
+  "errorCode": "1104",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>Firstname missing</t>
+  </si>
+  <si>
+    <t>firsrtname blank</t>
+  </si>
+  <si>
+    <t>firstname invalid</t>
+  </si>
+  <si>
+    <t>firstname length exceeded</t>
+  </si>
+  <si>
+    <t>firstname given more than once</t>
+  </si>
+  <si>
+    <t>firstname less than minimum length</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "123$%^asv",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish1234Nitish1234Nitish1234Nitish1234Nitish12345",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "firstName" : "Nitish",    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Ni",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter firstName is missing",
+  "errorCode": "1201",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter firstName is blank",
+  "errorCode": "1202",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter firstName is invalid",
+  "errorCode": "1203",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter firstName length exceeded",
+  "errorCode": "1204",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter firstName given more than once",
+  "errorCode": "1205",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter firstName is less than minimum length",
+  "errorCode": "1209",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>address missing</t>
+  </si>
+  <si>
+    <t>address blank</t>
+  </si>
+  <si>
+    <t>address length exceeded</t>
+  </si>
+  <si>
+    <t>address given more than once</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Somewhere10Some10",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "address" : "Somewhere",    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter address is missing",
+  "errorCode": "1401",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter address is blank",
+  "errorCode": "1402",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter address length exceeded",
+  "errorCode": "1404",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter address given more than once",
+  "errorCode": "1405",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>city missing</t>
+  </si>
+  <si>
+    <t>city blank</t>
+  </si>
+  <si>
+    <t>city length exceeded</t>
+  </si>
+  <si>
+    <t>city given more than once</t>
+  </si>
+  <si>
+    <t>city invalid</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter city is missing",
+  "errorCode": "1501",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter city is blank",
+  "errorCode": "1502",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter city length exceeded",
+  "errorCode": "1504",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter adcitydress given more than once",
+  "errorCode": "1505",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter city is invalid",
+  "errorCode": "1503",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere1Somewhere1Somewhere1Somewhere1Somewhere1Somewhere11",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "city" : "Mumbai",    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai#$@!234",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>country missing</t>
+  </si>
+  <si>
+    <t>country blank</t>
+  </si>
+  <si>
+    <t>country length exceeded</t>
+  </si>
+  <si>
+    <t>country invalid</t>
+  </si>
+  <si>
+    <t>country given more than once</t>
+  </si>
+  <si>
+    <t>state missing</t>
+  </si>
+  <si>
+    <t>state blank</t>
+  </si>
+  <si>
+    <t>state length exceeded</t>
+  </si>
+  <si>
+    <t>state given more than once</t>
+  </si>
+  <si>
+    <t>state invalid</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "IndiaIndiaIndiaIndiaIndiaIndiaIndiaIndiaIndiaIndiaIndiaIndiaI",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "country" : "India",    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India123$$",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "MaharashtraMaharashtraMaharashtraMaharashtraMaharashtraMahara",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "state" : "Maharashtra",    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra123$$",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter state is invalid",
+  "errorCode": "1603",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter state is missing",
+  "errorCode": "1601",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter state is blank",
+  "errorCode": "1602",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter state length exceeded",
+  "errorCode": "1604",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter state given more than once",
+  "errorCode": "1605",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter country is missing",
+  "errorCode": "1701",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter country is blank",
+  "errorCode": "1702",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter country length exceeded",
+  "errorCode": "1704",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter country given more than once",
+  "errorCode": "1705",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter country is invalid",
+  "errorCode": "1703",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>zipcode blank</t>
+  </si>
+  <si>
+    <t>zipcode missing</t>
+  </si>
+  <si>
+    <t>zipcode length exceeded</t>
+  </si>
+  <si>
+    <t>zipcode given more than once</t>
+  </si>
+  <si>
+    <t>zipcode less than minimum length</t>
+  </si>
+  <si>
+    <t>zipcode all zeros</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "4000861",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "zipCode" : "400086",    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "40008",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "000000",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter zipCode is missing",
+  "errorCode": "1801",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter zipCode is blank",
+  "errorCode": "1802",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter zipCode length exceeded",
+  "errorCode": "1804",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter zipCode given more than once",
+  "errorCode": "1805",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter zipCode is less than minimum length",
+  "errorCode": "1809",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter zipCode is invalid",
+  "errorCode": "1803",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>checksum missing</t>
+  </si>
+  <si>
+    <t>checksum blank</t>
+  </si>
+  <si>
+    <t>checksum invalid</t>
+  </si>
+  <si>
+    <t>checksum given more than once</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter checksum is blank",
+  "errorCode": "2402",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter checksum is missing",
+  "errorCode": "2401",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "abc123$%^",
+    "customFields" : "",
+    "payInfo" : ""
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter checksum is invalid",
+  "errorCode": "2403",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "statusMsg": "Parameter checksum given more than once",
+  "errorCode": "2405",
+  "merchantTxnRef": "ABC-11",
+  "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+    "apiKey" : "123456789|123456789|123456789|123456789|",
+    "b2bUserId" : "1",
+    "email" : "nitish.bangera@transerv.co.in",
+    "mobileNumber" : "9999999999",
+    "currencyCode" : "INR",
+    "amount" : "100.00",
+    "merchantTxnRef" : "ABC-11",
+    "callbackUrl" : "http://merchantdomain.com/callback",
+    "successUrl" : "http://merchantdomain.com/success",
+    "failUrl" : "http://merchantdomain.com/fail",
+    "appUsed" : "IFRAME_CHECKOUT",
+    "firstName" : "Nitish",
+    "lastName" : "Bangera",
+    "address" : "Somewhere",
+    "city" : "Mumbai",
+    "zipCode" : "400086",
+    "state" : "Maharashtra",
+    "country" : "India",
+    "shipAddress" : "Somewhere",
+    "shipCity" : "Mumbai",
+    "shipZipCode" : "400086",
+    "shipState" : "Maharashtra",
+    "shipCountry" : "India",
+    "checksumMethod" : "MD5",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",
+    "checksum" : "5d1e0f2cd3dfc1abed98962d64de99df",    "customFields" : "",
+    "payInfo" : ""
 }</t>
   </si>
 </sst>
@@ -193,7 +4146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +4155,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -559,25 +4519,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="126" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -615,63 +4575,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="1" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -693,6 +4653,4174 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
+    </row>
+    <row r="4" spans="1:30" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
